--- a/self-manage/data/account.xlsx
+++ b/self-manage/data/account.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10420" windowWidth="19420" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="支出" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="收入" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="支出" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="收入" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -52,83 +52,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -399,20 +331,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col width="20.5" customWidth="1" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" width="20.5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -1072,8 +1004,96 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>餐饮</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2021/4/17 </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>餐饮</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>泡面等</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2021/4/16 </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>住房</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>45.9</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>椅子</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2021/4/16 </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>服饰美容</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>T恤、长裤</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -1084,7 +1104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -1092,12 +1112,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col width="12.9140625" customWidth="1" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" width="12.9140625"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -1166,8 +1186,52 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2021/4/15 </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>薪资</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>闲鱼上卖出屏幕</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2021/4/15 </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>薪资</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5500</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>三月份工资</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -1209,7 +1273,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>